--- a/data/trans_orig/hab_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>221158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>196793</v>
+        <v>197334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248056</v>
+        <v>249491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2143575009116073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1907425641110418</v>
+        <v>0.1912664200841034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.240428782268253</v>
+        <v>0.2418192859267608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -765,19 +765,19 @@
         <v>336214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>305330</v>
+        <v>305951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>370342</v>
+        <v>369851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2556539151337404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.232169986018541</v>
+        <v>0.2326425319955699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2816046708685866</v>
+        <v>0.2812312312712401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>565</v>
@@ -786,19 +786,19 @@
         <v>557371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>518308</v>
+        <v>517914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>598948</v>
+        <v>600893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2374990618130403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2208542312222619</v>
+        <v>0.220686224488775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2552151144978422</v>
+        <v>0.2560441839173966</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>184387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161719</v>
+        <v>161195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210145</v>
+        <v>210919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1787173272177447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1567467379619785</v>
+        <v>0.1562387202314432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2036831588145097</v>
+        <v>0.2044339135078417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -836,19 +836,19 @@
         <v>260915</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234100</v>
+        <v>233472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292609</v>
+        <v>290432</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1983971029545284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1780076027142378</v>
+        <v>0.17752974386241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2224973480381801</v>
+        <v>0.2208421212830767</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>454</v>
@@ -857,19 +857,19 @@
         <v>445301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410738</v>
+        <v>405747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>485630</v>
+        <v>483434</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1897454209958054</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.175018030337329</v>
+        <v>0.1728912391346977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2069296640133002</v>
+        <v>0.205993828878818</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>348966</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>319990</v>
+        <v>314254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>377009</v>
+        <v>376719</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3382359014513654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3101513326154727</v>
+        <v>0.3045917628341736</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3654172538027294</v>
+        <v>0.3651359167991048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>370</v>
@@ -907,19 +907,19 @@
         <v>397534</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>365021</v>
+        <v>362861</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>435016</v>
+        <v>433189</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3022812549104754</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.277558986780152</v>
+        <v>0.2759165504322518</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3307823750844228</v>
+        <v>0.3293928217152168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>704</v>
@@ -928,19 +928,19 @@
         <v>746499</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>701631</v>
+        <v>704727</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>790311</v>
+        <v>792425</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3180877443222759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2989689777976703</v>
+        <v>0.3002881851575963</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3367561806987872</v>
+        <v>0.3376566809538523</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>277213</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249589</v>
+        <v>248200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>305147</v>
+        <v>305398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2686892704192826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2419142563056166</v>
+        <v>0.2405689029465584</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2957645966801749</v>
+        <v>0.2960078899858914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>327</v>
@@ -978,19 +978,19 @@
         <v>320451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289845</v>
+        <v>291528</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>351036</v>
+        <v>350626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2436677270012559</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2203956069149067</v>
+        <v>0.2216750291800133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2669245278491561</v>
+        <v>0.2666126533785244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>606</v>
@@ -999,19 +999,19 @@
         <v>597663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>552489</v>
+        <v>556268</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>637016</v>
+        <v>639611</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2546677728688784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2354189452149328</v>
+        <v>0.2370292059144825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2714362375387893</v>
+        <v>0.2725418313252901</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>495215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>460157</v>
+        <v>457802</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>533617</v>
+        <v>530831</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2924360892503636</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2717337268481011</v>
+        <v>0.2703428298239336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3151134123355178</v>
+        <v>0.3134684151023333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>469</v>
@@ -1124,19 +1124,19 @@
         <v>485696</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>450753</v>
+        <v>449093</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>518828</v>
+        <v>518138</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3059171853753599</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2839079640808063</v>
+        <v>0.2828626102335895</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3267854384654505</v>
+        <v>0.3263504871222356</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>989</v>
@@ -1145,19 +1145,19 @@
         <v>980912</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>924225</v>
+        <v>931879</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1031851</v>
+        <v>1031353</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2989594097548148</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2816825538190798</v>
+        <v>0.2840153393861667</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3144846423894404</v>
+        <v>0.314332698439208</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>359680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>325106</v>
+        <v>329167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395103</v>
+        <v>397035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2123995726526541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1919825392259228</v>
+        <v>0.1943810909227671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2333175783983064</v>
+        <v>0.2344585944739923</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>342</v>
@@ -1195,19 +1195,19 @@
         <v>334887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>304174</v>
+        <v>303749</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>370437</v>
+        <v>367731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2109292383134608</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1915846927981028</v>
+        <v>0.1913170533421386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2333209643817023</v>
+        <v>0.2316162018707089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>681</v>
@@ -1216,19 +1216,19 @@
         <v>694567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>648655</v>
+        <v>650859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>743127</v>
+        <v>745043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2116880977062309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1976952772912295</v>
+        <v>0.1983669080970042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2264881085524518</v>
+        <v>0.2270719392876121</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>488787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454774</v>
+        <v>453875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531297</v>
+        <v>532425</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2886400210057889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2685546511407357</v>
+        <v>0.2680238454211659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3137432182372998</v>
+        <v>0.3144096893981835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>428</v>
@@ -1266,19 +1266,19 @@
         <v>454879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>416943</v>
+        <v>418879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491779</v>
+        <v>491011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2865064993915245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2626127908988809</v>
+        <v>0.2638322075226195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3097480545649427</v>
+        <v>0.3092646026723126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>880</v>
@@ -1287,19 +1287,19 @@
         <v>943665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>892579</v>
+        <v>888759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1000267</v>
+        <v>998449</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2876076386858368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2720377727693426</v>
+        <v>0.270873501428229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3048586353927369</v>
+        <v>0.3043043747295158</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>349731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>317053</v>
+        <v>311771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>384761</v>
+        <v>384914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2065243170911933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1872272501581526</v>
+        <v>0.184108243297757</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2272104508469589</v>
+        <v>0.2273004568261582</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>315</v>
@@ -1337,19 +1337,19 @@
         <v>312211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>280686</v>
+        <v>283141</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>345185</v>
+        <v>345334</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1966470769196547</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1767905543274553</v>
+        <v>0.1783369262957885</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2174159688565972</v>
+        <v>0.2175093457098788</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>653</v>
@@ -1358,19 +1358,19 @@
         <v>661942</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>613202</v>
+        <v>619026</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>706253</v>
+        <v>709798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2017448538531175</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.186889949281042</v>
+        <v>0.1886650395839773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2152497075247901</v>
+        <v>0.2163302121414366</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>225850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200566</v>
+        <v>202435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250114</v>
+        <v>248304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4095872306555499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3637344265392837</v>
+        <v>0.3671242646911974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4535918161770848</v>
+        <v>0.450309342355898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>204</v>
@@ -1483,19 +1483,19 @@
         <v>216702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194399</v>
+        <v>193784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239152</v>
+        <v>238872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4548626712380334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4080472394182976</v>
+        <v>0.4067572270797864</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5019857650257193</v>
+        <v>0.5013988972582522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>437</v>
@@ -1504,19 +1504,19 @@
         <v>442552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>409668</v>
+        <v>409207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>474945</v>
+        <v>470498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4305731578836677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3985792319048067</v>
+        <v>0.3981308876528869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4620900634028706</v>
+        <v>0.4577634027165536</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>134442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113497</v>
+        <v>112639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>156616</v>
+        <v>155719</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.24381612495894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2058316746512361</v>
+        <v>0.2042755682400008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.284028898354369</v>
+        <v>0.2824033601340816</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>84</v>
@@ -1554,19 +1554,19 @@
         <v>88040</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72636</v>
+        <v>71732</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>107283</v>
+        <v>104806</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1847979959103172</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1524644733516023</v>
+        <v>0.1505669113285961</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2251889883745132</v>
+        <v>0.2199906490158383</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>202</v>
@@ -1575,19 +1575,19 @@
         <v>222482</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196901</v>
+        <v>193846</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>253764</v>
+        <v>253066</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2164602307827663</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1915717442403011</v>
+        <v>0.1885993143322634</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2468954595912763</v>
+        <v>0.2462161056757024</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>124048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104025</v>
+        <v>105185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144438</v>
+        <v>147189</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2249654529548051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1886528754697438</v>
+        <v>0.1907573277040151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2619435714882465</v>
+        <v>0.2669323751093466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -1625,19 +1625,19 @@
         <v>115981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97331</v>
+        <v>98650</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133074</v>
+        <v>136614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2434461640034678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2042998370290558</v>
+        <v>0.2070689116117528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.279325004356426</v>
+        <v>0.2867570105609841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -1646,19 +1646,19 @@
         <v>240028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>213496</v>
+        <v>212941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>271693</v>
+        <v>268625</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2335315729572056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2077172995286146</v>
+        <v>0.2071771101465222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2643394488627167</v>
+        <v>0.2613546142221307</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>67068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51875</v>
+        <v>53329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83235</v>
+        <v>84005</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.121631191430705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09407817976520678</v>
+        <v>0.09671336361294171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1509506917013652</v>
+        <v>0.1523457417477265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -1696,19 +1696,19 @@
         <v>55689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43453</v>
+        <v>43056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70612</v>
+        <v>71127</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1168931688481815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09120789708037068</v>
+        <v>0.09037552862189496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1482161315389336</v>
+        <v>0.1492980710892224</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -1717,19 +1717,19 @@
         <v>122758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101874</v>
+        <v>102046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>144643</v>
+        <v>144948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1194350383763605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09911683880683667</v>
+        <v>0.0992839820652701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1407278694193311</v>
+        <v>0.1410247439548608</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>942222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>885874</v>
+        <v>887233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>987389</v>
+        <v>989079</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2875658974032656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2703683459634703</v>
+        <v>0.2707831966512627</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3013509256032784</v>
+        <v>0.30186675376584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>997</v>
@@ -1842,19 +1842,19 @@
         <v>1038612</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>989654</v>
+        <v>982411</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1091594</v>
+        <v>1098522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3073546569657104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2928665725762669</v>
+        <v>0.2907231500577572</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.323033574098946</v>
+        <v>0.3250837212229648</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1991</v>
@@ -1863,19 +1863,19 @@
         <v>1980834</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1909743</v>
+        <v>1895977</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2061059</v>
+        <v>2050223</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.29761288191955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2869316223499212</v>
+        <v>0.284863396046194</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3096663632999571</v>
+        <v>0.3080382598254882</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>678509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>630049</v>
+        <v>630918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>730446</v>
+        <v>722637</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2070807338487843</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1922907488133419</v>
+        <v>0.1925559683677892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2229318946068079</v>
+        <v>0.2205486395228667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>696</v>
@@ -1913,19 +1913,19 @@
         <v>683841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>646303</v>
+        <v>639504</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>736861</v>
+        <v>732017</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.202367916061642</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1912593707392115</v>
+        <v>0.1892473881224723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2180578919797312</v>
+        <v>0.2166245259171461</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1337</v>
@@ -1934,19 +1934,19 @@
         <v>1362350</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1295632</v>
+        <v>1298250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1427909</v>
+        <v>1434535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2046879811759311</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1946638971076291</v>
+        <v>0.1950571065289538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2145379257272412</v>
+        <v>0.2155334478869508</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>961800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>910045</v>
+        <v>909323</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1016662</v>
+        <v>1014723</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2935410826611851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2777453248861794</v>
+        <v>0.2775252098828879</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3102848084641321</v>
+        <v>0.3096931274546066</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>908</v>
@@ -1984,19 +1984,19 @@
         <v>968393</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>915972</v>
+        <v>912573</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1019525</v>
+        <v>1022787</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2865748989646265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.271061887848202</v>
+        <v>0.2700561016825821</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3017062234266713</v>
+        <v>0.3026717584804</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1804</v>
@@ -2005,19 +2005,19 @@
         <v>1930193</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1858289</v>
+        <v>1858126</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2000391</v>
+        <v>2014401</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2900042697793032</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2792008482231151</v>
+        <v>0.2791763954832988</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3005511835083325</v>
+        <v>0.3026561929122495</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>694012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>651483</v>
+        <v>646638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>743174</v>
+        <v>740322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.211812286086765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1988325314456508</v>
+        <v>0.1973538727683969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2268163884874016</v>
+        <v>0.2259460246064538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>696</v>
@@ -2055,19 +2055,19 @@
         <v>688351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>639995</v>
+        <v>645657</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>733292</v>
+        <v>737925</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2037025280080212</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.189392739912056</v>
+        <v>0.1910680775333964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2170017049630838</v>
+        <v>0.2183728707501943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1379</v>
@@ -2076,19 +2076,19 @@
         <v>1382363</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1315476</v>
+        <v>1313131</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1443964</v>
+        <v>1453600</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2076948671252157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1976452739079041</v>
+        <v>0.1972929366567031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2169501178274978</v>
+        <v>0.2183978731575587</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>198660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175725</v>
+        <v>173034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227036</v>
+        <v>226287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2038285248231329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1802970294496608</v>
+        <v>0.1775354938640091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2329431186738841</v>
+        <v>0.2321747134367349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>338</v>
@@ -2440,19 +2440,19 @@
         <v>352262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>320006</v>
+        <v>320930</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>387435</v>
+        <v>386870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2633149505610583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2392037449652835</v>
+        <v>0.2398947339013182</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2896066197280528</v>
+        <v>0.2891841619204682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>523</v>
@@ -2461,19 +2461,19 @@
         <v>550922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>510232</v>
+        <v>514908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592246</v>
+        <v>598058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2382427150975356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2206467410895571</v>
+        <v>0.2226688481536922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2561131644891786</v>
+        <v>0.2586261992136014</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>209119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>185385</v>
+        <v>182758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237778</v>
+        <v>235268</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.214559118722494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1902079146849001</v>
+        <v>0.1875125675644064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2439644782570202</v>
+        <v>0.2413886523994731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -2511,19 +2511,19 @@
         <v>280933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252020</v>
+        <v>250316</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316475</v>
+        <v>313325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2099968569906146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.188384496058862</v>
+        <v>0.1871106603523758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2365640185093279</v>
+        <v>0.2342098358141672</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -2532,19 +2532,19 @@
         <v>490052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>449200</v>
+        <v>449882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530866</v>
+        <v>532551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2119197511461962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1942536368311602</v>
+        <v>0.1945487748472892</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2295695771131346</v>
+        <v>0.2302985000007565</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>314754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>286661</v>
+        <v>283617</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>347687</v>
+        <v>342369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3229430526572319</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2941184700847054</v>
+        <v>0.2909953751925879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.356732768159644</v>
+        <v>0.3512766159968639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>371</v>
@@ -2582,19 +2582,19 @@
         <v>404331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>368963</v>
+        <v>370379</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>438895</v>
+        <v>439229</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3022364253377871</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2757988350416924</v>
+        <v>0.2768574130996011</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3280727445715813</v>
+        <v>0.3283228459076646</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>661</v>
@@ -2603,19 +2603,19 @@
         <v>719085</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>671893</v>
+        <v>673301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>766924</v>
+        <v>762632</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3109638186778367</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2905557633674966</v>
+        <v>0.2911646014916634</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3316512775006172</v>
+        <v>0.3297953528843189</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>252110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222401</v>
+        <v>220898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>278013</v>
+        <v>279504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2586693037971413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2281868146481719</v>
+        <v>0.2266448168932074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2852462075832722</v>
+        <v>0.2867755664342268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>279</v>
@@ -2653,19 +2653,19 @@
         <v>300271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>270506</v>
+        <v>268173</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331489</v>
+        <v>331350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2244517671105401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2022027985623729</v>
+        <v>0.2004587069201812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2477872436957129</v>
+        <v>0.247683131280019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>519</v>
@@ -2674,19 +2674,19 @@
         <v>552381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>512216</v>
+        <v>511811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>593760</v>
+        <v>595499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2388737150784314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2215045749181886</v>
+        <v>0.2213295870477603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2567677990509774</v>
+        <v>0.2575196417604101</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>553926</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>514754</v>
+        <v>515589</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>591469</v>
+        <v>592817</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2820457222514844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2621002196114557</v>
+        <v>0.2625254741577122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3011616782709652</v>
+        <v>0.3018484817240737</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>487</v>
@@ -2799,19 +2799,19 @@
         <v>504660</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>466772</v>
+        <v>467699</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>541535</v>
+        <v>544909</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2870972146759728</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2655428852653272</v>
+        <v>0.2660704836799887</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3080751443706356</v>
+        <v>0.3099945775252438</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1027</v>
@@ -2820,19 +2820,19 @@
         <v>1058586</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1006132</v>
+        <v>1005047</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1110081</v>
+        <v>1113772</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2844315629991213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2703376552541683</v>
+        <v>0.2700461711092661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2982676268650449</v>
+        <v>0.2992594084142592</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>442440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>404669</v>
+        <v>400557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>479310</v>
+        <v>478076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2252800140161042</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2060477674827778</v>
+        <v>0.2039542023613593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2440530441430499</v>
+        <v>0.2434251032570861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>357</v>
@@ -2870,19 +2870,19 @@
         <v>392377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>354970</v>
+        <v>356043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>433171</v>
+        <v>428978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2232203690467496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2019397337131011</v>
+        <v>0.2025497996091708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2464273846360648</v>
+        <v>0.2440418833303259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>765</v>
@@ -2891,19 +2891,19 @@
         <v>834818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>783161</v>
+        <v>782978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>887147</v>
+        <v>885458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2243072351854898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2104275633529664</v>
+        <v>0.2103784186715235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2383676502610614</v>
+        <v>0.2379137671806358</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>579866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538661</v>
+        <v>542788</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623664</v>
+        <v>624110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2952540045649922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2742734334313152</v>
+        <v>0.2763747056028498</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3175548884560674</v>
+        <v>0.3177820154018001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>482</v>
@@ -2941,19 +2941,19 @@
         <v>531164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>492948</v>
+        <v>490849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577318</v>
+        <v>571930</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3021747782374222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.280433979719335</v>
+        <v>0.2792402666586868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3284317935071679</v>
+        <v>0.3253663781459573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1016</v>
@@ -2962,19 +2962,19 @@
         <v>1111030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054674</v>
+        <v>1058015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1167271</v>
+        <v>1170968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2985227145709323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2833805491208602</v>
+        <v>0.284278250735599</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3136340864765898</v>
+        <v>0.3146274458048787</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>387725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>351995</v>
+        <v>354925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>425766</v>
+        <v>423749</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1974202591674192</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1792274404182645</v>
+        <v>0.1807192886017143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2167899311163636</v>
+        <v>0.2157630734629115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>309</v>
@@ -3012,19 +3012,19 @@
         <v>329601</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298939</v>
+        <v>299169</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>364103</v>
+        <v>364934</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1875076380398555</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1700639203738201</v>
+        <v>0.1701950003142525</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.207135551757466</v>
+        <v>0.2076080875282245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>683</v>
@@ -3033,19 +3033,19 @@
         <v>717326</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>667093</v>
+        <v>668201</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>762496</v>
+        <v>764087</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1927384872444567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1792412623658831</v>
+        <v>0.1795388811751497</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2048750735505651</v>
+        <v>0.2053024660262537</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>192788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>170728</v>
+        <v>171586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>215922</v>
+        <v>215076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4006561136270547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3548098930218306</v>
+        <v>0.356592967770227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4487326884634335</v>
+        <v>0.4469757009442408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -3158,19 +3158,19 @@
         <v>193065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169624</v>
+        <v>170513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213307</v>
+        <v>215879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4209593217792694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3698476558359053</v>
+        <v>0.3717874384961945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4650941361879652</v>
+        <v>0.470702614671118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>359</v>
@@ -3179,19 +3179,19 @@
         <v>385854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>355886</v>
+        <v>354085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>415773</v>
+        <v>418287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4105641348404435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3786769601105647</v>
+        <v>0.3767616167934701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4423996501623767</v>
+        <v>0.4450748735446715</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>105170</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>86354</v>
+        <v>86364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>127198</v>
+        <v>126655</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2185660485076072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1794626686853298</v>
+        <v>0.1794843442590114</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2643453814011578</v>
+        <v>0.2632160439686929</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>88</v>
@@ -3229,19 +3229,19 @@
         <v>102755</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>86000</v>
+        <v>86520</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>123324</v>
+        <v>123792</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2240471535893525</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1875151028560783</v>
+        <v>0.1886473578123312</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2688962469236015</v>
+        <v>0.269916376877595</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>175</v>
@@ -3250,19 +3250,19 @@
         <v>207925</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>179857</v>
+        <v>178485</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>236526</v>
+        <v>235861</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2212408428068924</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1913750911571387</v>
+        <v>0.1899155171704867</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2516734090379789</v>
+        <v>0.2509653575849797</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>121338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102147</v>
+        <v>103626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142870</v>
+        <v>144386</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2521674238464309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.212284019082068</v>
+        <v>0.2153568649157628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2969146880973434</v>
+        <v>0.3000649532996876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -3300,19 +3300,19 @@
         <v>96690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80279</v>
+        <v>79143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116404</v>
+        <v>116646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2108220977463084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750404631997365</v>
+        <v>0.1725627355995091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2538065905957158</v>
+        <v>0.2543344681649255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -3321,19 +3321,19 @@
         <v>218028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>190746</v>
+        <v>192760</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>245356</v>
+        <v>247891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.231990791414585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2029616981443105</v>
+        <v>0.2051050865299551</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2610688500939661</v>
+        <v>0.2637667545447707</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>61885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49068</v>
+        <v>46459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77259</v>
+        <v>78873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1286104140189072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1019746999912148</v>
+        <v>0.09655255249019469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1605604351955566</v>
+        <v>0.1639155674904283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -3371,19 +3371,19 @@
         <v>66121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51821</v>
+        <v>51077</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84291</v>
+        <v>83924</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1441714268850697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1129910610697875</v>
+        <v>0.111368236327729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1837891024034664</v>
+        <v>0.1829889037768291</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>119</v>
@@ -3392,19 +3392,19 @@
         <v>128007</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108932</v>
+        <v>108632</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153052</v>
+        <v>153139</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.136204230938079</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1159080150781148</v>
+        <v>0.1155887020633828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1628541774486178</v>
+        <v>0.1629461099276185</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>945374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>895857</v>
+        <v>894175</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1001736</v>
+        <v>1005092</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.276442813325711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2619633254013515</v>
+        <v>0.2614713649939481</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2929240457805237</v>
+        <v>0.2939054278980264</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1001</v>
@@ -3517,19 +3517,19 @@
         <v>1049987</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>993891</v>
+        <v>993641</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1104729</v>
+        <v>1101211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2954189863164887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2796362059355095</v>
+        <v>0.2795658166611849</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3108209280558765</v>
+        <v>0.3098309628420882</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1909</v>
@@ -3538,19 +3538,19 @@
         <v>1995361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1916742</v>
+        <v>1922042</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2075587</v>
+        <v>2076046</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2861138158232727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2748405930335539</v>
+        <v>0.2756006744729191</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2976173158210744</v>
+        <v>0.2976831636549839</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>756729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>705013</v>
+        <v>704333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>806192</v>
+        <v>806803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2212798520680641</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2061573412708272</v>
+        <v>0.2059585531834835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2357435755255573</v>
+        <v>0.2359224774700965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>704</v>
@@ -3588,19 +3588,19 @@
         <v>776065</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>726057</v>
+        <v>722355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>826632</v>
+        <v>824419</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2183497843488001</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.204279810604761</v>
+        <v>0.2032382342910652</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2325770068187523</v>
+        <v>0.2319542066600694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1392</v>
@@ -3609,19 +3609,19 @@
         <v>1532794</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1465193</v>
+        <v>1457568</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1609042</v>
+        <v>1600975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2197865745644916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2100932664453978</v>
+        <v>0.2089999774187224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.230719769846631</v>
+        <v>0.2295630514265088</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>1015959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>962653</v>
+        <v>957374</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1074608</v>
+        <v>1071355</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2970829149034124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2814954730770982</v>
+        <v>0.2799516268581997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3142330255823407</v>
+        <v>0.3132817899235363</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>940</v>
@@ -3659,19 +3659,19 @@
         <v>1032184</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>978356</v>
+        <v>980826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1087493</v>
+        <v>1094617</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.290410006565454</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2752652011827495</v>
+        <v>0.2759600647619537</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3059714389701476</v>
+        <v>0.3079758650962175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1874</v>
@@ -3680,19 +3680,19 @@
         <v>2048143</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1969401</v>
+        <v>1968149</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2124302</v>
+        <v>2131174</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2936821389285222</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2823914571494279</v>
+        <v>0.2822118554926455</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3046025166113318</v>
+        <v>0.3055879633003243</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>701720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>654507</v>
+        <v>656532</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>753181</v>
+        <v>746898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2051944197028126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1913883909153201</v>
+        <v>0.1919806005620591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2202424386093527</v>
+        <v>0.2184051495635815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>649</v>
@@ -3730,19 +3730,19 @@
         <v>695994</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>646931</v>
+        <v>647706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>744983</v>
+        <v>743240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1958212227692573</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1820171158329439</v>
+        <v>0.1822352424148415</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.209604507843922</v>
+        <v>0.2091143338811769</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1321</v>
@@ -3751,19 +3751,19 @@
         <v>1397714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1334429</v>
+        <v>1326755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1467944</v>
+        <v>1463914</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2004174706837134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1913430575300366</v>
+        <v>0.1902427705670127</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2104877710256949</v>
+        <v>0.2099099367094789</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>141184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121321</v>
+        <v>122116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164723</v>
+        <v>162449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.187161138792928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1608287242147916</v>
+        <v>0.1618835008608077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2183648378649157</v>
+        <v>0.2153498853520797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>205</v>
@@ -4115,19 +4115,19 @@
         <v>238999</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209930</v>
+        <v>211435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266666</v>
+        <v>270826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2402824583682256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2110566635689224</v>
+        <v>0.2125704493559911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2680973485774422</v>
+        <v>0.2722801606004244</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>356</v>
@@ -4136,19 +4136,19 @@
         <v>380184</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>345797</v>
+        <v>345050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>416975</v>
+        <v>416866</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2173712308048862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1977106369358535</v>
+        <v>0.1972834964736626</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2384069225998469</v>
+        <v>0.2383442629708682</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>141871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121318</v>
+        <v>121716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164137</v>
+        <v>164377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1880718958479329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1608255107022408</v>
+        <v>0.1613523144873458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2175884777906752</v>
+        <v>0.2179068860928109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -4186,19 +4186,19 @@
         <v>192472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166243</v>
+        <v>167333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217935</v>
+        <v>219905</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1935058105864763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1671359182770198</v>
+        <v>0.1682313569152419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2191053355808791</v>
+        <v>0.2210853874486685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>308</v>
@@ -4207,19 +4207,19 @@
         <v>334344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302174</v>
+        <v>302344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370722</v>
+        <v>369167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1911621629111191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1727686409944409</v>
+        <v>0.1728661684315997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2119613691393234</v>
+        <v>0.2110721753501571</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>252170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>227450</v>
+        <v>226568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>276885</v>
+        <v>276261</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3342897287984361</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3015194547129895</v>
+        <v>0.300350356698557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3670530903805189</v>
+        <v>0.3662259834790132</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>285</v>
@@ -4257,19 +4257,19 @@
         <v>317229</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>286615</v>
+        <v>287296</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>350044</v>
+        <v>347752</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3189319182318317</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2881533292776353</v>
+        <v>0.28883881686443</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3519237509759003</v>
+        <v>0.3496190412464591</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>535</v>
@@ -4278,19 +4278,19 @@
         <v>569399</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>531227</v>
+        <v>529410</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>610465</v>
+        <v>608807</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3255557426318896</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3037307131878416</v>
+        <v>0.3026920329278845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3490350837465645</v>
+        <v>0.348087242500504</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>219121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>195297</v>
+        <v>194905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>245327</v>
+        <v>245929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.290477236560703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2588955070787541</v>
+        <v>0.2583760934338192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3252174949657264</v>
+        <v>0.3260160957898759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -4328,19 +4328,19 @@
         <v>245959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219009</v>
+        <v>218955</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>273702</v>
+        <v>276167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2472798128134664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2201845387242597</v>
+        <v>0.2201306782391396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2751714176524515</v>
+        <v>0.2776496755727429</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>455</v>
@@ -4349,19 +4349,19 @@
         <v>465080</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>429253</v>
+        <v>428886</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>506282</v>
+        <v>502817</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.265910863652105</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.245426840828774</v>
+        <v>0.245217014248952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2894683037648614</v>
+        <v>0.2874870183696824</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>541642</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>501033</v>
+        <v>505814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>578836</v>
+        <v>582182</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2608583885421293</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.241300529484092</v>
+        <v>0.2436032901374889</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2787708000416687</v>
+        <v>0.2803826439581867</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>529</v>
@@ -4474,19 +4474,19 @@
         <v>563441</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>523601</v>
+        <v>524355</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>607365</v>
+        <v>603208</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2833784625086259</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2633412460425658</v>
+        <v>0.2637204891561619</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3054692849059106</v>
+        <v>0.3033785487136448</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1067</v>
@@ -4495,19 +4495,19 @@
         <v>1105084</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1050389</v>
+        <v>1045815</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1172666</v>
+        <v>1164362</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2718744117255294</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2584183511657366</v>
+        <v>0.2572929240497837</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2885011775043947</v>
+        <v>0.2864581992953295</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>516217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475578</v>
+        <v>477113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>561435</v>
+        <v>557829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2486132595696264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2290412381407518</v>
+        <v>0.2297808379277391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.270390835492977</v>
+        <v>0.2686537146164421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>465</v>
@@ -4545,19 +4545,19 @@
         <v>486462</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>448341</v>
+        <v>447337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>521936</v>
+        <v>524199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2446620976491613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2254896270036931</v>
+        <v>0.2249848835174778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2625036168301735</v>
+        <v>0.2636419061375999</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>933</v>
@@ -4566,19 +4566,19 @@
         <v>1002678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>947082</v>
+        <v>951953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1055886</v>
+        <v>1062800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2466804909924909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2330026738659136</v>
+        <v>0.2342010206803035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2597706033876641</v>
+        <v>0.2614717933408858</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>623647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>577875</v>
+        <v>582785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667175</v>
+        <v>666598</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3003525330246279</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2783083132349505</v>
+        <v>0.2806729927839932</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3213158518229329</v>
+        <v>0.3210378553510992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>545</v>
@@ -4616,19 +4616,19 @@
         <v>571948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531722</v>
+        <v>529801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610279</v>
+        <v>616571</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2876569910533144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2674255072419239</v>
+        <v>0.266459447603163</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3069351045184174</v>
+        <v>0.3100997765946663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1115</v>
@@ -4637,19 +4637,19 @@
         <v>1195596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1136947</v>
+        <v>1139291</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1251170</v>
+        <v>1263172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2941423231962818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2797135062541418</v>
+        <v>0.2802900718469254</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3078147081003204</v>
+        <v>0.310767434996156</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>394878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>360393</v>
+        <v>356671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>434826</v>
+        <v>433382</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1901758188636164</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.173567408144412</v>
+        <v>0.1717748219796311</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2094148645838208</v>
+        <v>0.2087193358131041</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>369</v>
@@ -4687,19 +4687,19 @@
         <v>366449</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>330559</v>
+        <v>332062</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>400922</v>
+        <v>403029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1843024487888985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1662520896181966</v>
+        <v>0.1670077999169784</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2016404322740506</v>
+        <v>0.202700252168883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>745</v>
@@ -4708,19 +4708,19 @@
         <v>761327</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>715145</v>
+        <v>710532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>814980</v>
+        <v>810386</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1873027740856979</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1759411392289031</v>
+        <v>0.17480611047682</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2005025349768898</v>
+        <v>0.1993722831037805</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>249080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225019</v>
+        <v>225215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272675</v>
+        <v>272629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4554517904901846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4114544224927808</v>
+        <v>0.4118125184337851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4985952490364522</v>
+        <v>0.4985109952549352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>221</v>
@@ -4833,19 +4833,19 @@
         <v>237222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>212618</v>
+        <v>214294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260557</v>
+        <v>263425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4319883118978682</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3871842685078926</v>
+        <v>0.3902351854324001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4744811542544263</v>
+        <v>0.4797050525605942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>459</v>
@@ -4854,19 +4854,19 @@
         <v>486303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>454885</v>
+        <v>449935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>519676</v>
+        <v>522255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4436959231106621</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4150311819848547</v>
+        <v>0.41051439966697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4741454224461952</v>
+        <v>0.4764981918257719</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>101464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83386</v>
+        <v>82835</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>121800</v>
+        <v>121329</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1855306233834585</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1524738794833828</v>
+        <v>0.1514671715065882</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2227154161789278</v>
+        <v>0.2218535545171977</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>101</v>
@@ -4904,19 +4904,19 @@
         <v>104094</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87406</v>
+        <v>85967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>124407</v>
+        <v>124194</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1895582799852711</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1591682455234439</v>
+        <v>0.156548242524423</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2265494406214268</v>
+        <v>0.2261600106643031</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -4925,19 +4925,19 @@
         <v>205558</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>179746</v>
+        <v>176694</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>232035</v>
+        <v>231613</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1875485934246387</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1639978786444306</v>
+        <v>0.1612128508324802</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2117054025874194</v>
+        <v>0.211320137218303</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>139578</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118160</v>
+        <v>117448</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161883</v>
+        <v>161359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2552238753239355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.216059974552232</v>
+        <v>0.2147572238473654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2960091659690088</v>
+        <v>0.2950505052567947</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -4975,19 +4975,19 @@
         <v>149300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129551</v>
+        <v>127751</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171758</v>
+        <v>168438</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2718799113854106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2359163511405024</v>
+        <v>0.2326381100857586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3127771509367016</v>
+        <v>0.3067311269045871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>267</v>
@@ -4996,19 +4996,19 @@
         <v>288879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>262694</v>
+        <v>258718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>321799</v>
+        <v>320246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2635690211741917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2396784908795598</v>
+        <v>0.2360508089643143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.29360531239482</v>
+        <v>0.2921880578936904</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>56763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42208</v>
+        <v>42879</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74872</v>
+        <v>73401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1037937108024214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07717831369683362</v>
+        <v>0.07840640661501878</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1369066794225708</v>
+        <v>0.1342158901894926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -5046,19 +5046,19 @@
         <v>58524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45742</v>
+        <v>46247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73480</v>
+        <v>73925</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1065734967314501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08329665624678191</v>
+        <v>0.0842165221827668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1338087597198224</v>
+        <v>0.134620131134657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>112</v>
@@ -5067,19 +5067,19 @@
         <v>115287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98378</v>
+        <v>96886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137112</v>
+        <v>138616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1051864622905075</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08975850078651627</v>
+        <v>0.08839708165272483</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1250991864190564</v>
+        <v>0.1264714415512789</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>931907</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>881750</v>
+        <v>879794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>979892</v>
+        <v>989087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2759066181596243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2610568251576872</v>
+        <v>0.2604776759776417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2901134473715822</v>
+        <v>0.2928355344215633</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>955</v>
@@ -5192,19 +5192,19 @@
         <v>1039663</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>982488</v>
+        <v>984770</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1094848</v>
+        <v>1097200</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2943469469126347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2781598167081726</v>
+        <v>0.2788058991685601</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3099709587794154</v>
+        <v>0.3106366277157545</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1882</v>
@@ -5213,19 +5213,19 @@
         <v>1971570</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1897516</v>
+        <v>1890728</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2057195</v>
+        <v>2043882</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2853329205104669</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2746155655270724</v>
+        <v>0.2736331838493476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2977248733015725</v>
+        <v>0.2957982392765058</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>759552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>717549</v>
+        <v>707122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>810750</v>
+        <v>811471</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2248781270508536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2124424030667105</v>
+        <v>0.2093551499741984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2400361265530877</v>
+        <v>0.2402493897528801</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>734</v>
@@ -5263,19 +5263,19 @@
         <v>783028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>736346</v>
+        <v>736300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>832429</v>
+        <v>837922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2216891239011861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2084724971770429</v>
+        <v>0.2084594597282981</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2356752569851066</v>
+        <v>0.2372304570699406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1430</v>
@@ -5284,19 +5284,19 @@
         <v>1542581</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1474347</v>
+        <v>1469018</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1611551</v>
+        <v>1615034</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2232479767271155</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2133729715324015</v>
+        <v>0.2126017484758368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2332296783027847</v>
+        <v>0.2337336485408569</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>1015396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>958193</v>
+        <v>964870</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1065082</v>
+        <v>1072066</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.300624965487627</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2836891144796674</v>
+        <v>0.2856659428563607</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3153353467513768</v>
+        <v>0.3174030537115174</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>973</v>
@@ -5334,19 +5334,19 @@
         <v>1038477</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>980685</v>
+        <v>984010</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1096171</v>
+        <v>1096842</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2940113099479901</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2776493373967436</v>
+        <v>0.2785905453781913</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3103455155602311</v>
+        <v>0.3105354072108184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1917</v>
@@ -5355,19 +5355,19 @@
         <v>2053874</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1981162</v>
+        <v>1968678</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2131252</v>
+        <v>2131870</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2972442059797052</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2867210410562701</v>
+        <v>0.2849144374172338</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3084426231558828</v>
+        <v>0.3085320850487094</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>670762</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>628448</v>
+        <v>628998</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>722299</v>
+        <v>720957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1985902893018952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1860624173279906</v>
+        <v>0.1862254057027377</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2138487583045675</v>
+        <v>0.213451358253049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>664</v>
@@ -5405,19 +5405,19 @@
         <v>670932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>626894</v>
+        <v>623195</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>720460</v>
+        <v>715718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1899526192381892</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1774847504530134</v>
+        <v>0.1764374146929154</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2039748668478612</v>
+        <v>0.2026324331552584</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1312</v>
@@ -5426,19 +5426,19 @@
         <v>1341694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1276776</v>
+        <v>1278246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1404414</v>
+        <v>1413348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1941748967827123</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1847797758340915</v>
+        <v>0.1849925362748521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2032520584541561</v>
+        <v>0.2045449627449141</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>120081</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100805</v>
+        <v>101055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139063</v>
+        <v>136843</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2075621361540947</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1742439766405348</v>
+        <v>0.1746755012878496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2403742642015791</v>
+        <v>0.2365363368176913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>367</v>
@@ -5790,19 +5790,19 @@
         <v>228333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>207898</v>
+        <v>208083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>248717</v>
+        <v>249470</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2777648813777074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2529052767720149</v>
+        <v>0.2531301679744081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3025620442549303</v>
+        <v>0.303477313520135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>514</v>
@@ -5811,19 +5811,19 @@
         <v>348414</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319553</v>
+        <v>321712</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374932</v>
+        <v>375849</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2487663793603605</v>
+        <v>0.2487663793603604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2281594563838696</v>
+        <v>0.2297013496614591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2676998912235866</v>
+        <v>0.2683549842111632</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>94640</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77708</v>
+        <v>77932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115124</v>
+        <v>112501</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1635875208065278</v>
+        <v>0.1635875208065277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1343199745743648</v>
+        <v>0.1347069705040412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1989948185868518</v>
+        <v>0.1944606007641489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -5861,19 +5861,19 @@
         <v>146798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130205</v>
+        <v>129836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165545</v>
+        <v>166077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1785786457116875</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1583931673029898</v>
+        <v>0.1579446230820383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2013840679074049</v>
+        <v>0.2020311139434411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -5882,19 +5882,19 @@
         <v>241439</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>216942</v>
+        <v>218050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266320</v>
+        <v>268281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1723862929138035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1548957504723868</v>
+        <v>0.1556871177292016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1901518291185363</v>
+        <v>0.1915514772291085</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>187008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>166373</v>
+        <v>163347</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209807</v>
+        <v>210447</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3232467203312713</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.287578767314643</v>
+        <v>0.2823491363707022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3626556444742251</v>
+        <v>0.3637622478054116</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>416</v>
@@ -5932,19 +5932,19 @@
         <v>243045</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223527</v>
+        <v>224862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>264782</v>
+        <v>264996</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2956619349339406</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2719180518024282</v>
+        <v>0.2735418145783404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3221043220899656</v>
+        <v>0.3223644837081124</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>632</v>
@@ -5953,19 +5953,19 @@
         <v>430053</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>402888</v>
+        <v>400626</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>461694</v>
+        <v>463313</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3070563248889864</v>
+        <v>0.3070563248889863</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2876607394660953</v>
+        <v>0.2860454384456806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3296478901245713</v>
+        <v>0.3308041252548881</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>176801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156708</v>
+        <v>156913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196829</v>
+        <v>198708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3056036227081064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2708727933186775</v>
+        <v>0.2712280043271044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3402230218050628</v>
+        <v>0.3434718809555928</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>416</v>
@@ -6003,19 +6003,19 @@
         <v>203861</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186881</v>
+        <v>186508</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224233</v>
+        <v>221795</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2479945379766647</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2273390368310473</v>
+        <v>0.2268849130664842</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2727767822424242</v>
+        <v>0.2698116926124501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>645</v>
@@ -6024,19 +6024,19 @@
         <v>380662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>353348</v>
+        <v>353103</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>409974</v>
+        <v>411033</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2717910028368497</v>
+        <v>0.2717910028368496</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.252289376823479</v>
+        <v>0.2521143133943098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2927200160382855</v>
+        <v>0.2934760801220702</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>579567</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>533584</v>
+        <v>531048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>625636</v>
+        <v>627033</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2598295394066845</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2392147682116141</v>
+        <v>0.2380776581062911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2804832527562899</v>
+        <v>0.2811093275800715</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>792</v>
@@ -6149,19 +6149,19 @@
         <v>600059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>560459</v>
+        <v>561516</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>638312</v>
+        <v>641284</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2763474597121559</v>
+        <v>0.2763474597121558</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2581106544883251</v>
+        <v>0.2585972377414267</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2939644545542486</v>
+        <v>0.2953329271135751</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1340</v>
@@ -6170,19 +6170,19 @@
         <v>1179626</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1121403</v>
+        <v>1120841</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1247696</v>
+        <v>1251689</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2679774768082275</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2547509382970859</v>
+        <v>0.2546233343012002</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2834410683554544</v>
+        <v>0.2843482610518538</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>552259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>505897</v>
+        <v>508256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>599551</v>
+        <v>598891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.247586921184062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2268018796657121</v>
+        <v>0.2278595293685902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2687888882303145</v>
+        <v>0.2684927262424111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>598</v>
@@ -6220,19 +6220,19 @@
         <v>490592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>456832</v>
+        <v>452373</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>529801</v>
+        <v>527052</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2259345382309384</v>
+        <v>0.2259345382309383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2103866513465052</v>
+        <v>0.2083331484009756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2439913666206358</v>
+        <v>0.2427252886028274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1039</v>
@@ -6241,19 +6241,19 @@
         <v>1042852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>980535</v>
+        <v>984475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1103888</v>
+        <v>1102834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2369062629877725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2227497641450371</v>
+        <v>0.2236447950282942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2507720596016365</v>
+        <v>0.2505324352793179</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>678130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632308</v>
+        <v>629832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>729380</v>
+        <v>727059</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.30401718661843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2834744083066437</v>
+        <v>0.2823644063588286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3269932426018887</v>
+        <v>0.3259526941666895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>858</v>
@@ -6291,19 +6291,19 @@
         <v>646393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609999</v>
+        <v>607781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687647</v>
+        <v>688127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2976858124747163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2809254002389729</v>
+        <v>0.2799036528620729</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3166847047770813</v>
+        <v>0.3169058659244997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1451</v>
@@ -6312,19 +6312,19 @@
         <v>1324523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1262862</v>
+        <v>1261148</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1387265</v>
+        <v>1386458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.300894054938733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2868862831312372</v>
+        <v>0.2864969623581203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3151471357459903</v>
+        <v>0.3149638923894902</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>420610</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>379012</v>
+        <v>380021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>466168</v>
+        <v>466517</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1885663527908235</v>
+        <v>0.1885663527908236</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1699175254131187</v>
+        <v>0.1703699785145856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2089909512638956</v>
+        <v>0.2091472219655016</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>673</v>
@@ -6362,19 +6362,19 @@
         <v>434348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>401428</v>
+        <v>401251</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>468835</v>
+        <v>466576</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2000321895821895</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.184871499596216</v>
+        <v>0.1847898214393331</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.215914539063545</v>
+        <v>0.2148743340180075</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1083</v>
@@ -6383,19 +6383,19 @@
         <v>854958</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>800678</v>
+        <v>803949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>915123</v>
+        <v>904737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.194222205265267</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1818911838058654</v>
+        <v>0.1826343690650635</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2078898801112628</v>
+        <v>0.2055306335255924</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>285024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>257563</v>
+        <v>253381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312901</v>
+        <v>311138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4005469953235363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3619554893897228</v>
+        <v>0.3560783455151487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4397221030046593</v>
+        <v>0.4372451272003636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>398</v>
@@ -6508,19 +6508,19 @@
         <v>287430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>263859</v>
+        <v>265840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>311412</v>
+        <v>314097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3911272035838018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3590521689114007</v>
+        <v>0.3617482448134512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4237613061302616</v>
+        <v>0.4274141781100804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -6529,19 +6529,19 @@
         <v>572454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>536807</v>
+        <v>536406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609442</v>
+        <v>609980</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3957612630500758</v>
+        <v>0.3957612630500757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3711167780281216</v>
+        <v>0.3708395944210616</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4213321830294609</v>
+        <v>0.4217042852035866</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>151934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>128851</v>
+        <v>127135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>179223</v>
+        <v>176241</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2135146079010418</v>
+        <v>0.2135146079010417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1810761166737071</v>
+        <v>0.1786640484718081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2518632221103151</v>
+        <v>0.2476736874599219</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>217</v>
@@ -6579,19 +6579,19 @@
         <v>172402</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>151073</v>
+        <v>154268</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>193001</v>
+        <v>195075</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2346003450073047</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2055757721881975</v>
+        <v>0.2099238026170891</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2626300860602557</v>
+        <v>0.2654525520709523</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>349</v>
@@ -6600,19 +6600,19 @@
         <v>324337</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>292720</v>
+        <v>293602</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>355701</v>
+        <v>357916</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2242272324863061</v>
+        <v>0.224227232486306</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2023691503436318</v>
+        <v>0.2029788754660378</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2459106283338864</v>
+        <v>0.2474422133523549</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>182588</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158342</v>
+        <v>154644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210645</v>
+        <v>208588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2565927990784909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2225191663878591</v>
+        <v>0.2173219886286162</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2960210760944689</v>
+        <v>0.2931303418597112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -6650,19 +6650,19 @@
         <v>181400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161290</v>
+        <v>158790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203465</v>
+        <v>202232</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2468440784721581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2194795130037794</v>
+        <v>0.2160770907204697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2768688770082419</v>
+        <v>0.2751922140103084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -6671,19 +6671,19 @@
         <v>363988</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>331844</v>
+        <v>333372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>400204</v>
+        <v>401751</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2516399542471261</v>
+        <v>0.251639954247126</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2294174371350145</v>
+        <v>0.2304734841146731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2766772591603111</v>
+        <v>0.2777471821238234</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>92041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73449</v>
+        <v>73846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115606</v>
+        <v>112116</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1293455976969311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1032189141365538</v>
+        <v>0.1037763336379575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1624622346977456</v>
+        <v>0.1575579816130862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -6721,19 +6721,19 @@
         <v>93644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77671</v>
+        <v>79344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110630</v>
+        <v>111665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1274283729367352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1056927794049237</v>
+        <v>0.1079686535418225</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1505416653084493</v>
+        <v>0.1519504610250202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>237</v>
@@ -6742,19 +6742,19 @@
         <v>185685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160953</v>
+        <v>161648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214016</v>
+        <v>215059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1283715502164922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1112731219097566</v>
+        <v>0.1117540874428065</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1479578606664533</v>
+        <v>0.1486792351744287</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>984672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>931771</v>
+        <v>929073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1044754</v>
+        <v>1050221</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.27968207709721</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2646564268370729</v>
+        <v>0.2638899166476861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2967474443123216</v>
+        <v>0.2983003568969646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1557</v>
@@ -6867,19 +6867,19 @@
         <v>1115822</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1066887</v>
+        <v>1066341</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1168564</v>
+        <v>1164997</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2992839280086499</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2861586171820951</v>
+        <v>0.2860122029491681</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3134301338826141</v>
+        <v>0.3124734676698066</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2557</v>
@@ -6888,19 +6888,19 @@
         <v>2100494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2026437</v>
+        <v>2017917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2174801</v>
+        <v>2176950</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2897637191813712</v>
+        <v>0.2897637191813713</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2795475563262427</v>
+        <v>0.2783721903621454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3000142873506826</v>
+        <v>0.3003107675017132</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>798834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>742933</v>
+        <v>743589</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>856508</v>
+        <v>859761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.226897314962186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2110194410681372</v>
+        <v>0.2112058399300561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2432788674941367</v>
+        <v>0.244202799734356</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1043</v>
@@ -6938,19 +6938,19 @@
         <v>809793</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>766092</v>
+        <v>758870</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>860500</v>
+        <v>856412</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2172013438116958</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2054797886831752</v>
+        <v>0.2035427830806399</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2308017571884578</v>
+        <v>0.2297052693442436</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1715</v>
@@ -6959,19 +6959,19 @@
         <v>1608627</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1539745</v>
+        <v>1538363</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1681521</v>
+        <v>1679968</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2219104741154093</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2124082533149912</v>
+        <v>0.2122175317489992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2319662022200693</v>
+        <v>0.2317519773944916</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>1047726</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>985223</v>
+        <v>984563</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1107375</v>
+        <v>1110227</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.297591805509239</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2798385816098461</v>
+        <v>0.2796511797566021</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3145341579100455</v>
+        <v>0.3153441193035862</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1516</v>
@@ -7009,19 +7009,19 @@
         <v>1070838</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1019328</v>
+        <v>1024196</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1122827</v>
+        <v>1125407</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2872182901131827</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2734022887880316</v>
+        <v>0.2747079991059755</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3011626073364858</v>
+        <v>0.3018546810548876</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2479</v>
@@ -7030,19 +7030,19 @@
         <v>2118564</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2042269</v>
+        <v>2049300</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2191253</v>
+        <v>2196329</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2922564894796421</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2817315717660597</v>
+        <v>0.2827014607695243</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3022838362922932</v>
+        <v>0.3029840755968363</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>689451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>638041</v>
+        <v>639999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>741747</v>
+        <v>745154</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1958288024313649</v>
+        <v>0.195828802431365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1812265175688505</v>
+        <v>0.1817827325771514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2106826215006416</v>
+        <v>0.2116505277374786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1236</v>
@@ -7080,19 +7080,19 @@
         <v>731853</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>688120</v>
+        <v>691474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>774752</v>
+        <v>773008</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1962964380664715</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1845664304333728</v>
+        <v>0.1854658375711878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2078027246184811</v>
+        <v>0.2073347730126031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1965</v>
@@ -7101,19 +7101,19 @@
         <v>1421305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1354386</v>
+        <v>1362820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1485528</v>
+        <v>1495954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1960693172235774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1868378809748951</v>
+        <v>0.1880012940256094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2049288939028395</v>
+        <v>0.2063672983360151</v>
       </c>
     </row>
     <row r="23">
